--- a/biology/Botanique/Mouvement_végétal_rapide/Mouvement_végétal_rapide.xlsx
+++ b/biology/Botanique/Mouvement_végétal_rapide/Mouvement_végétal_rapide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mouvement_v%C3%A9g%C3%A9tal_rapide</t>
+          <t>Mouvement_végétal_rapide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mouvement végétal rapide est une forme de mouvement végétal se produisant sur une courte période, généralement moins d'une seconde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mouvement_v%C3%A9g%C3%A9tal_rapide</t>
+          <t>Mouvement_végétal_rapide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mouvements végétaux, ou tropismes, sont assez courants mais se produisent plus lentement que les mouvements végétaux rapides, qui sont de l'ordre de la seconde. Par exemple, la fleur de la dionée attrape-mouche ouvre ses pétales et disperse son pollen en moins de 0,5 ms[1]. Le record est actuellement détenu par le mûrier blanc, dont le redressement des étamines se fait en moins de 25 µs, propulsant les grains de pollen à plus de la moitié de la vitesse du son, près des limites physiques théoriques pour les mouvements végétaux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mouvements végétaux, ou tropismes, sont assez courants mais se produisent plus lentement que les mouvements végétaux rapides, qui sont de l'ordre de la seconde. Par exemple, la fleur de la dionée attrape-mouche ouvre ses pétales et disperse son pollen en moins de 0,5 ms. Le record est actuellement détenu par le mûrier blanc, dont le redressement des étamines se fait en moins de 25 µs, propulsant les grains de pollen à plus de la moitié de la vitesse du son, près des limites physiques théoriques pour les mouvements végétaux.
 En 1880, Charles Darwin publie son dernier travail avant sa mort : The Power of Movement in Plants (« Le Pouvoir des mouvements dans les plantes »).
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mouvement_v%C3%A9g%C3%A9tal_rapide</t>
+          <t>Mouvement_végétal_rapide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,25 +559,135 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Plantes carnivores
-Aldrovanda vesiculosa
+          <t>Plantes carnivores</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aldrovanda vesiculosa
 Dionée attrape-mouche (Dionaea muscipula)
 Utriculaire (Utricularia)
 Certaines variétés de Droséra (Drosera)
-Autres mouvements rapides de feuilles
-Chamaecrista fasciculata
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mouvement_végétal_rapide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_v%C3%A9g%C3%A9tal_rapide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres mouvements rapides de feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaecrista fasciculata
 Chamaecrista nictitans
 Codariocalyx motorius
 Mimosa nuttallii
 Sensitive (Mimosa pudica)
 Neptunia lutea
 Schrankia roemeriana
-Mouvements rapides des étamines
-Mahonia
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mouvement_végétal_rapide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_v%C3%A9g%C3%A9tal_rapide</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mouvements rapides des étamines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahonia
 Epine-vinette
 Ruta graveolens
-Dispersion rapide de graines ou de pollen
-Il s'agit notamment d'un phénomène caractéristique de l'autochorie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mouvement_végétal_rapide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouvement_v%C3%A9g%C3%A9tal_rapide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dispersion rapide de graines ou de pollen</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il s'agit notamment d'un phénomène caractéristique de l'autochorie.
 Arceuthobium
 Cardamine hérissée (Cardamine hirsuta)
 Quatre-temps (Cornus canadensis)
@@ -571,11 +695,11 @@
 Hamamélis (Hamamelis)
 Hura crepitans
 Impatiente (Impatiens)
-Marantaceae[3]
-Mûrier blanc (Morus alba)[2]
+Marantaceae
+Mûrier blanc (Morus alba)
 Orchidées (tout le genre Catasetum)
 Stylidium
-Certains Fabaceae possède des fèves qui se tordent en séchant et se rompent soudainement, dispersant les graines à plusieurs mètres[4],[5]</t>
+Certains Fabaceae possède des fèves qui se tordent en séchant et se rompent soudainement, dispersant les graines à plusieurs mètres,</t>
         </is>
       </c>
     </row>
